--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-egfr.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-egfr.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4626" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="659">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: eGFR Profiles</t>
+    <t>CH LAB Observation Results: eGFR</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:40:37+00:00</t>
+    <t>2024-12-18T08:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -927,7 +927,7 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -1405,6 +1405,16 @@
     <t>valueString</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueBoolean</t>
+  </si>
+  <si>
+    <t>valueBoolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
     <t>Observation.value[x]:valueRange</t>
   </si>
   <si>
@@ -1674,7 +1684,6 @@
   &lt;coding&gt;
     &lt;system value="http://snomed.info/sct"/&gt;
     &lt;code value="703505007"/&gt;
-    &lt;display value="Clearance calculation relative to 1.73 square meters body surface area (qualifier value)"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2049,6 +2058,9 @@
   </si>
   <si>
     <t>Observation.component.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]:valueBoolean</t>
   </si>
   <si>
     <t>Observation.component.value[x]:valueRange</t>
@@ -2409,7 +2421,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP120"/>
+  <dimension ref="A1:AP122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11118,19 +11130,19 @@
         <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>440</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>429</v>
@@ -11191,39 +11203,39 @@
         <v>95</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>444</v>
+        <v>107</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>84</v>
@@ -11245,16 +11257,16 @@
         <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>429</v>
@@ -11318,7 +11330,7 @@
         <v>157</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>84</v>
@@ -11327,10 +11339,10 @@
         <v>84</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>138</v>
+        <v>448</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>84</v>
@@ -11341,13 +11353,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>84</v>
@@ -11366,19 +11378,19 @@
         <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>429</v>
@@ -11439,28 +11451,28 @@
         <v>95</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>431</v>
+        <v>157</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>107</v>
+        <v>456</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>432</v>
+        <v>84</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>433</v>
+        <v>138</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>435</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76">
@@ -11738,19 +11750,19 @@
         <v>84</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>466</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>429</v>
@@ -11811,39 +11823,39 @@
         <v>95</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>470</v>
+        <v>107</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>84</v>
@@ -11862,19 +11874,19 @@
         <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>284</v>
+        <v>469</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>429</v>
@@ -11902,11 +11914,13 @@
         <v>84</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="Z79" t="s" s="2">
-        <v>475</v>
+        <v>84</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>84</v>
@@ -11933,28 +11947,28 @@
         <v>95</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>431</v>
+        <v>157</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>107</v>
+        <v>473</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>432</v>
+        <v>84</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>435</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
@@ -11962,9 +11976,11 @@
         <v>476</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="D80" t="s" s="2">
         <v>84</v>
       </c>
@@ -11982,22 +11998,22 @@
         <v>84</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>284</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>477</v>
+        <v>426</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>480</v>
+        <v>429</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>84</v>
@@ -12022,13 +12038,11 @@
         <v>84</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>84</v>
@@ -12046,7 +12060,7 @@
         <v>84</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
@@ -12055,7 +12069,7 @@
         <v>95</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>483</v>
+        <v>431</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>107</v>
@@ -12064,38 +12078,38 @@
         <v>84</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>486</v>
+        <v>84</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>84</v>
@@ -12110,16 +12124,16 @@
         <v>284</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>84</v>
@@ -12147,10 +12161,10 @@
         <v>344</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>84</v>
@@ -12168,16 +12182,16 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>84</v>
+        <v>486</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>107</v>
@@ -12186,31 +12200,31 @@
         <v>84</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>493</v>
+        <v>84</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>494</v>
+        <v>138</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>496</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>84</v>
+        <v>489</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12229,19 +12243,19 @@
         <v>84</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>498</v>
+        <v>284</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>84</v>
@@ -12266,13 +12280,13 @@
         <v>84</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>84</v>
+        <v>344</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>84</v>
+        <v>494</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>84</v>
+        <v>495</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>84</v>
@@ -12290,7 +12304,7 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -12308,27 +12322,27 @@
         <v>84</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>84</v>
+        <v>496</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>84</v>
+        <v>499</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12339,7 +12353,7 @@
         <v>82</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>84</v>
@@ -12351,18 +12365,20 @@
         <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>284</v>
+        <v>501</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>84</v>
       </c>
@@ -12386,13 +12402,13 @@
         <v>84</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>509</v>
+        <v>84</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>510</v>
+        <v>84</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>511</v>
+        <v>84</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>84</v>
@@ -12410,13 +12426,13 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>84</v>
@@ -12428,27 +12444,27 @@
         <v>84</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>512</v>
+        <v>84</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>515</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12474,17 +12490,15 @@
         <v>284</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>84</v>
       </c>
@@ -12493,7 +12507,7 @@
         <v>84</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>521</v>
+        <v>84</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>84</v>
@@ -12508,11 +12522,13 @@
         <v>84</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Y84" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="Z84" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>84</v>
@@ -12530,7 +12546,7 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -12548,27 +12564,27 @@
         <v>84</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>84</v>
+        <v>515</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>84</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12591,18 +12607,20 @@
         <v>84</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>526</v>
+        <v>284</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>84</v>
       </c>
@@ -12611,7 +12629,7 @@
         <v>84</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>84</v>
+        <v>524</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>84</v>
@@ -12626,13 +12644,11 @@
         <v>84</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>84</v>
+        <v>525</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>84</v>
@@ -12650,7 +12666,7 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -12668,27 +12684,27 @@
         <v>84</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>530</v>
+        <v>84</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>533</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12711,16 +12727,16 @@
         <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12770,7 +12786,7 @@
         <v>84</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -12788,27 +12804,27 @@
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12819,7 +12835,7 @@
         <v>82</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>84</v>
@@ -12831,20 +12847,18 @@
         <v>84</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>84</v>
       </c>
@@ -12892,45 +12906,45 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AG87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="AN87" t="s" s="2">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>84</v>
+        <v>545</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12941,7 +12955,7 @@
         <v>82</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>84</v>
@@ -12953,16 +12967,20 @@
         <v>84</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>160</v>
+        <v>547</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>161</v>
+        <v>548</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>84</v>
       </c>
@@ -13010,19 +13028,19 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>163</v>
+        <v>546</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>84</v>
+        <v>552</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>84</v>
@@ -13031,10 +13049,10 @@
         <v>84</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>84</v>
+        <v>553</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>164</v>
+        <v>554</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>84</v>
@@ -13045,21 +13063,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>84</v>
@@ -13071,17 +13089,15 @@
         <v>84</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>84</v>
@@ -13130,19 +13146,19 @@
         <v>84</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>84</v>
@@ -13165,14 +13181,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>555</v>
+        <v>167</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13185,26 +13201,24 @@
         <v>84</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>556</v>
+        <v>168</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>557</v>
+        <v>169</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="O90" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>84</v>
       </c>
@@ -13252,7 +13266,7 @@
         <v>84</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>558</v>
+        <v>172</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>82</v>
@@ -13276,7 +13290,7 @@
         <v>84</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>84</v>
@@ -13287,42 +13301,46 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>84</v>
+        <v>558</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>84</v>
       </c>
@@ -13370,19 +13388,19 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>563</v>
+        <v>84</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>84</v>
@@ -13391,10 +13409,10 @@
         <v>84</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>564</v>
+        <v>84</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>565</v>
+        <v>138</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>84</v>
@@ -13405,10 +13423,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13431,13 +13449,13 @@
         <v>84</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13488,16 +13506,16 @@
         <v>84</v>
       </c>
       <c r="AF92" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI92" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>107</v>
@@ -13509,10 +13527,10 @@
         <v>84</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>84</v>
@@ -13523,10 +13541,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13549,20 +13567,16 @@
         <v>84</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>284</v>
+        <v>563</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>574</v>
-      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>84</v>
       </c>
@@ -13586,13 +13600,13 @@
         <v>84</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>575</v>
+        <v>84</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>576</v>
+        <v>84</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>84</v>
@@ -13610,7 +13624,7 @@
         <v>84</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
@@ -13619,7 +13633,7 @@
         <v>95</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>84</v>
+        <v>566</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>107</v>
@@ -13628,13 +13642,13 @@
         <v>84</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>577</v>
+        <v>84</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>495</v>
+        <v>572</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>84</v>
@@ -13645,10 +13659,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13659,7 +13673,7 @@
         <v>82</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>84</v>
@@ -13674,16 +13688,16 @@
         <v>284</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>84</v>
@@ -13708,13 +13722,13 @@
         <v>84</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>509</v>
+        <v>119</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>84</v>
@@ -13732,13 +13746,13 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>84</v>
@@ -13750,13 +13764,13 @@
         <v>84</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>84</v>
@@ -13767,10 +13781,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13781,7 +13795,7 @@
         <v>82</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>84</v>
@@ -13793,17 +13807,19 @@
         <v>84</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>587</v>
+        <v>284</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>585</v>
+      </c>
       <c r="O95" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>84</v>
@@ -13828,13 +13844,13 @@
         <v>84</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>84</v>
+        <v>512</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>84</v>
+        <v>587</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>84</v>
+        <v>588</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>84</v>
@@ -13852,13 +13868,13 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>84</v>
@@ -13870,13 +13886,13 @@
         <v>84</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>84</v>
+        <v>580</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>84</v>
+        <v>581</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>591</v>
+        <v>498</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>84</v>
@@ -13887,10 +13903,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13913,16 +13929,18 @@
         <v>84</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>160</v>
+        <v>590</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M96" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>84</v>
       </c>
@@ -13970,7 +13988,7 @@
         <v>84</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>82</v>
@@ -13991,10 +14009,10 @@
         <v>84</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>564</v>
+        <v>84</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>84</v>
@@ -14005,10 +14023,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14019,7 +14037,7 @@
         <v>82</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>84</v>
@@ -14028,20 +14046,18 @@
         <v>84</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>600</v>
-      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>84</v>
@@ -14090,13 +14106,13 @@
         <v>84</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>84</v>
@@ -14111,10 +14127,10 @@
         <v>84</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>84</v>
@@ -14125,10 +14141,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14139,7 +14155,7 @@
         <v>82</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>84</v>
@@ -14151,16 +14167,16 @@
         <v>96</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14210,7 +14226,7 @@
         <v>84</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
@@ -14231,10 +14247,10 @@
         <v>84</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>84</v>
@@ -14245,10 +14261,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14271,20 +14287,18 @@
         <v>96</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M99" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>613</v>
-      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>84</v>
       </c>
@@ -14332,7 +14346,7 @@
         <v>84</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
@@ -14353,10 +14367,10 @@
         <v>84</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>84</v>
@@ -14367,10 +14381,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14381,7 +14395,7 @@
         <v>82</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>84</v>
@@ -14390,19 +14404,23 @@
         <v>84</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>160</v>
+        <v>547</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>161</v>
+        <v>613</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>84</v>
       </c>
@@ -14450,19 +14468,19 @@
         <v>84</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>163</v>
+        <v>612</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>84</v>
@@ -14471,10 +14489,10 @@
         <v>84</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>84</v>
+        <v>617</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>164</v>
+        <v>618</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>84</v>
@@ -14485,10 +14503,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14499,7 +14517,7 @@
         <v>82</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>84</v>
@@ -14511,13 +14529,13 @@
         <v>84</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14556,29 +14574,31 @@
         <v>84</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AC101" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD101" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>84</v>
@@ -14590,7 +14610,7 @@
         <v>84</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>84</v>
@@ -14601,14 +14621,12 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
         <v>84</v>
       </c>
@@ -14617,7 +14635,7 @@
         <v>82</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>84</v>
@@ -14629,13 +14647,13 @@
         <v>84</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14674,16 +14692,14 @@
         <v>84</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="AC102" s="2"/>
       <c r="AD102" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>172</v>
@@ -14695,7 +14711,7 @@
         <v>83</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>146</v>
@@ -14710,7 +14726,7 @@
         <v>84</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>84</v>
@@ -14721,12 +14737,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="C103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="D103" t="s" s="2">
         <v>84</v>
       </c>
@@ -14747,13 +14765,13 @@
         <v>84</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14804,19 +14822,19 @@
         <v>84</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>84</v>
@@ -14828,7 +14846,7 @@
         <v>84</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>84</v>
@@ -14839,10 +14857,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14853,7 +14871,7 @@
         <v>82</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>84</v>
@@ -14865,13 +14883,13 @@
         <v>84</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14910,31 +14928,31 @@
         <v>84</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>84</v>
@@ -14946,7 +14964,7 @@
         <v>84</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>84</v>
@@ -14957,10 +14975,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14968,10 +14986,10 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>84</v>
@@ -14983,24 +15001,22 @@
         <v>84</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q105" s="2"/>
       <c r="R105" t="s" s="2">
-        <v>235</v>
+        <v>84</v>
       </c>
       <c r="S105" t="s" s="2">
         <v>84</v>
@@ -15030,31 +15046,31 @@
         <v>84</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>84</v>
@@ -15066,7 +15082,7 @@
         <v>84</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>84</v>
@@ -15077,10 +15093,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15103,22 +15119,24 @@
         <v>84</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>84</v>
@@ -15160,10 +15178,10 @@
         <v>84</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>95</v>
@@ -15172,7 +15190,7 @@
         <v>84</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>84</v>
@@ -15195,46 +15213,42 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>555</v>
+        <v>84</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>556</v>
+        <v>191</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>84</v>
       </c>
@@ -15282,19 +15296,19 @@
         <v>84</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>558</v>
+        <v>193</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>84</v>
@@ -15317,45 +15331,45 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>84</v>
+        <v>558</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>284</v>
+        <v>140</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>629</v>
+        <v>559</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>630</v>
+        <v>560</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>631</v>
+        <v>170</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>84</v>
@@ -15380,13 +15394,13 @@
         <v>84</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>509</v>
+        <v>84</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>632</v>
+        <v>84</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>633</v>
+        <v>84</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>84</v>
@@ -15404,34 +15418,34 @@
         <v>84</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>628</v>
+        <v>561</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>634</v>
+        <v>84</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>318</v>
+        <v>84</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>319</v>
+        <v>138</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>320</v>
+        <v>84</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>84</v>
@@ -15439,10 +15453,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15450,7 +15464,7 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>95</v>
@@ -15465,19 +15479,19 @@
         <v>96</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>425</v>
+        <v>284</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>427</v>
+        <v>633</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>429</v>
+        <v>314</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>84</v>
@@ -15502,32 +15516,34 @@
         <v>84</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>84</v>
+        <v>512</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>84</v>
+        <v>635</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>84</v>
+        <v>636</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AC109" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD109" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>95</v>
@@ -15542,31 +15558,29 @@
         <v>84</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>433</v>
+        <v>318</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>434</v>
+        <v>319</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>84</v>
+        <v>320</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>435</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
         <v>84</v>
       </c>
@@ -15587,16 +15601,16 @@
         <v>96</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>160</v>
+        <v>425</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>429</v>
@@ -15636,19 +15650,17 @@
         <v>84</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="AC110" s="2"/>
       <c r="AD110" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>82</v>
@@ -15666,7 +15678,7 @@
         <v>84</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>433</v>
@@ -15683,13 +15695,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>84</v>
@@ -15708,19 +15720,19 @@
         <v>84</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>440</v>
+        <v>160</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>441</v>
+        <v>639</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>443</v>
+        <v>640</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>429</v>
@@ -15772,7 +15784,7 @@
         <v>84</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>82</v>
@@ -15781,39 +15793,39 @@
         <v>95</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>444</v>
+        <v>107</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>84</v>
+        <v>641</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>84</v>
@@ -15832,19 +15844,19 @@
         <v>84</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>450</v>
+        <v>639</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>452</v>
+        <v>640</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>429</v>
@@ -15896,7 +15908,7 @@
         <v>84</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>82</v>
@@ -15905,39 +15917,39 @@
         <v>95</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>453</v>
+        <v>107</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>84</v>
+        <v>641</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>84</v>
@@ -15956,19 +15968,19 @@
         <v>84</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>636</v>
+        <v>444</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>637</v>
+        <v>446</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>429</v>
@@ -16020,7 +16032,7 @@
         <v>84</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>82</v>
@@ -16029,39 +16041,39 @@
         <v>95</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>107</v>
+        <v>447</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>638</v>
+        <v>84</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>435</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>84</v>
@@ -16080,19 +16092,19 @@
         <v>84</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>636</v>
+        <v>453</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>637</v>
+        <v>455</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>429</v>
@@ -16144,7 +16156,7 @@
         <v>84</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>82</v>
@@ -16153,39 +16165,39 @@
         <v>95</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>107</v>
+        <v>456</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>638</v>
+        <v>84</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>433</v>
+        <v>138</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>435</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>84</v>
@@ -16207,16 +16219,16 @@
         <v>96</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>429</v>
@@ -16268,7 +16280,7 @@
         <v>84</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>82</v>
@@ -16286,7 +16298,7 @@
         <v>84</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>433</v>
@@ -16303,13 +16315,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>84</v>
@@ -16328,19 +16340,19 @@
         <v>84</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>467</v>
+        <v>639</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>469</v>
+        <v>640</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>429</v>
@@ -16392,7 +16404,7 @@
         <v>84</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>82</v>
@@ -16401,39 +16413,39 @@
         <v>95</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>470</v>
+        <v>107</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>84</v>
+        <v>641</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>84</v>
@@ -16455,16 +16467,16 @@
         <v>96</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>284</v>
+        <v>466</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>429</v>
@@ -16492,11 +16504,13 @@
         <v>84</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Y117" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="Z117" t="s" s="2">
-        <v>475</v>
+        <v>84</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>84</v>
@@ -16514,7 +16528,7 @@
         <v>84</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>82</v>
@@ -16532,7 +16546,7 @@
         <v>84</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>433</v>
@@ -16549,12 +16563,14 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>638</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="D118" t="s" s="2">
         <v>84</v>
       </c>
@@ -16575,19 +16591,19 @@
         <v>84</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>284</v>
+        <v>469</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>648</v>
+        <v>470</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>649</v>
+        <v>471</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>650</v>
+        <v>472</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>480</v>
+        <v>429</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>84</v>
@@ -16612,13 +16628,13 @@
         <v>84</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>344</v>
+        <v>84</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>481</v>
+        <v>84</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>482</v>
+        <v>84</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>84</v>
@@ -16636,7 +16652,7 @@
         <v>84</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>82</v>
@@ -16645,10 +16661,10 @@
         <v>95</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>483</v>
+        <v>157</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>107</v>
+        <v>473</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>84</v>
@@ -16657,10 +16673,10 @@
         <v>84</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>138</v>
+        <v>474</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>84</v>
@@ -16671,21 +16687,23 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="C119" s="2"/>
+        <v>638</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="D119" t="s" s="2">
-        <v>486</v>
+        <v>84</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>84</v>
@@ -16694,22 +16712,22 @@
         <v>84</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>284</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>487</v>
+        <v>639</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>488</v>
+        <v>427</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>489</v>
+        <v>640</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>490</v>
+        <v>429</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>84</v>
@@ -16734,13 +16752,11 @@
         <v>84</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>84</v>
@@ -16758,13 +16774,13 @@
         <v>84</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>84</v>
@@ -16776,27 +16792,27 @@
         <v>84</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>493</v>
+        <v>641</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>494</v>
+        <v>433</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>495</v>
+        <v>434</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>496</v>
+        <v>435</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16807,7 +16823,7 @@
         <v>82</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>84</v>
@@ -16819,19 +16835,19 @@
         <v>84</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="N120" t="s" s="2">
-        <v>547</v>
-      </c>
       <c r="O120" t="s" s="2">
-        <v>548</v>
+        <v>483</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>84</v>
@@ -16856,13 +16872,13 @@
         <v>84</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>84</v>
+        <v>344</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>84</v>
+        <v>484</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>84</v>
@@ -16880,16 +16896,16 @@
         <v>84</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>84</v>
+        <v>486</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>107</v>
@@ -16901,15 +16917,259 @@
         <v>84</v>
       </c>
       <c r="AM120" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP120" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="P121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP121" t="s" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="N122" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AN120" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="AO120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP120" t="s" s="2">
+      <c r="P122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP122" t="s" s="2">
         <v>84</v>
       </c>
     </row>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-egfr.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-egfr.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="643">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:59:06+00:00</t>
+    <t>2025-05-22T14:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -477,7 +477,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {workflow-supportingInfo}
+    <t xml:space="preserve">Extension {workflow-supportingInfo|4.0.1}
 </t>
   </si>
   <si>
@@ -485,6 +485,10 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5</t>
@@ -501,10 +505,6 @@
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5.id</t>
@@ -735,7 +735,7 @@
     <t>value-r5</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value[x]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value%5Bx%5D}
 </t>
   </si>
   <si>
@@ -1257,7 +1257,7 @@
     <t>data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
+    <t xml:space="preserve">Extension {data-absent-reason|4.0.1}
 </t>
   </si>
   <si>
@@ -1335,7 +1335,7 @@
     <t>performerFunction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {event-performerFunction}
+    <t xml:space="preserve">Extension {event-performerFunction|4.0.1}
 </t>
   </si>
   <si>
@@ -1425,25 +1425,6 @@
 </t>
   </si>
   <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueRatio</t>
   </si>
   <si>
@@ -1454,22 +1435,6 @@
 </t>
   </si>
   <si>
-    <t>A measured ratio using UCUM</t>
-  </si>
-  <si>
-    <t>A measured ratio (or a ratio that can potentially be measured) and uncertainty of the measurement. This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueTime</t>
   </si>
   <si>
@@ -1510,30 +1475,14 @@
 </t>
   </si>
   <si>
-    <t>A measured amount using UCUM</t>
-  </si>
-  <si>
-    <t>A measured amount (or an amount that can potentially be measured) and uncertainty of the measurement. Note that measured amounts include amounts that are not precisely quantified, including amounts involving arbitrary units and floating currencies.
-This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/ips/ValueSet/results-coded-values-laboratory-uv-ips</t>
@@ -2430,15 +2379,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.72265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.8828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2449,28 +2398,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.73046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.06640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3651,7 +3600,7 @@
         <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>146</v>
@@ -3677,13 +3626,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>84</v>
@@ -3705,13 +3654,13 @@
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3771,7 +3720,7 @@
         <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>146</v>
@@ -6149,7 +6098,7 @@
         <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>146</v>
@@ -6269,7 +6218,7 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>146</v>
@@ -6389,7 +6338,7 @@
         <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>146</v>
@@ -6449,7 +6398,7 @@
         <v>231</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6509,7 +6458,7 @@
         <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>146</v>
@@ -10277,7 +10226,7 @@
         <v>82</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>84</v>
@@ -11254,19 +11203,19 @@
         <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>443</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>429</v>
@@ -11327,39 +11276,39 @@
         <v>95</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>447</v>
+        <v>107</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>84</v>
@@ -11378,19 +11327,19 @@
         <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>429</v>
@@ -11451,39 +11400,39 @@
         <v>95</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>456</v>
+        <v>107</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>84</v>
@@ -11505,7 +11454,7 @@
         <v>96</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>426</v>
@@ -11601,13 +11550,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>84</v>
@@ -11629,7 +11578,7 @@
         <v>96</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>426</v>
@@ -11725,13 +11674,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>84</v>
@@ -11753,7 +11702,7 @@
         <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>426</v>
@@ -11849,13 +11798,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>84</v>
@@ -11874,19 +11823,19 @@
         <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>429</v>
@@ -11947,39 +11896,39 @@
         <v>95</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>473</v>
+        <v>107</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>84</v>
@@ -12001,7 +11950,7 @@
         <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>284</v>
+        <v>461</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>426</v>
@@ -12042,7 +11991,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>84</v>
@@ -12095,10 +12044,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12124,16 +12073,16 @@
         <v>284</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>84</v>
@@ -12161,10 +12110,10 @@
         <v>344</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>84</v>
@@ -12182,7 +12131,7 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -12191,7 +12140,7 @@
         <v>95</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>107</v>
@@ -12206,7 +12155,7 @@
         <v>138</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>84</v>
@@ -12217,14 +12166,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12246,16 +12195,16 @@
         <v>284</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>84</v>
@@ -12283,10 +12232,10 @@
         <v>344</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>84</v>
@@ -12304,7 +12253,7 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -12322,27 +12271,27 @@
         <v>84</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12365,19 +12314,19 @@
         <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>84</v>
@@ -12426,7 +12375,7 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
@@ -12447,10 +12396,10 @@
         <v>84</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>84</v>
@@ -12461,10 +12410,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12490,13 +12439,13 @@
         <v>284</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12522,13 +12471,13 @@
         <v>84</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>84</v>
@@ -12546,7 +12495,7 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -12564,27 +12513,27 @@
         <v>84</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12610,16 +12559,16 @@
         <v>284</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>84</v>
@@ -12629,7 +12578,7 @@
         <v>84</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>84</v>
@@ -12648,7 +12597,7 @@
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>84</v>
@@ -12666,7 +12615,7 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -12687,10 +12636,10 @@
         <v>84</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>84</v>
@@ -12701,10 +12650,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12727,16 +12676,16 @@
         <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12786,7 +12735,7 @@
         <v>84</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -12804,27 +12753,27 @@
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12847,16 +12796,16 @@
         <v>84</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12906,7 +12855,7 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
@@ -12924,27 +12873,27 @@
         <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12967,19 +12916,19 @@
         <v>84</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>84</v>
@@ -13028,7 +12977,7 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
@@ -13040,7 +12989,7 @@
         <v>84</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>84</v>
@@ -13049,10 +12998,10 @@
         <v>84</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>84</v>
@@ -13063,10 +13012,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13181,10 +13130,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13301,14 +13250,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13330,10 +13279,10 @@
         <v>140</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>170</v>
@@ -13388,7 +13337,7 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
@@ -13423,10 +13372,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13449,13 +13398,13 @@
         <v>84</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13506,7 +13455,7 @@
         <v>84</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>82</v>
@@ -13515,7 +13464,7 @@
         <v>95</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>107</v>
@@ -13527,10 +13476,10 @@
         <v>84</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>84</v>
@@ -13541,10 +13490,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13567,13 +13516,13 @@
         <v>84</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13624,7 +13573,7 @@
         <v>84</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
@@ -13633,7 +13582,7 @@
         <v>95</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>107</v>
@@ -13645,10 +13594,10 @@
         <v>84</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>84</v>
@@ -13659,10 +13608,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13688,16 +13637,16 @@
         <v>284</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>84</v>
@@ -13725,10 +13674,10 @@
         <v>119</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>84</v>
@@ -13746,7 +13695,7 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -13764,13 +13713,13 @@
         <v>84</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>84</v>
@@ -13781,10 +13730,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13810,16 +13759,16 @@
         <v>284</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>84</v>
@@ -13844,13 +13793,13 @@
         <v>84</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>84</v>
@@ -13868,7 +13817,7 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>82</v>
@@ -13886,13 +13835,13 @@
         <v>84</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>84</v>
@@ -13903,10 +13852,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13929,17 +13878,17 @@
         <v>84</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>84</v>
@@ -13988,7 +13937,7 @@
         <v>84</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>82</v>
@@ -14012,7 +13961,7 @@
         <v>84</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>84</v>
@@ -14023,10 +13972,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14052,10 +14001,10 @@
         <v>160</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14106,7 +14055,7 @@
         <v>84</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>82</v>
@@ -14127,10 +14076,10 @@
         <v>84</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>84</v>
@@ -14141,10 +14090,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14167,16 +14116,16 @@
         <v>96</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14226,7 +14175,7 @@
         <v>84</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
@@ -14247,10 +14196,10 @@
         <v>84</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>84</v>
@@ -14261,10 +14210,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14287,16 +14236,16 @@
         <v>96</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14346,7 +14295,7 @@
         <v>84</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
@@ -14367,10 +14316,10 @@
         <v>84</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>84</v>
@@ -14381,10 +14330,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14407,19 +14356,19 @@
         <v>96</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>84</v>
@@ -14468,7 +14417,7 @@
         <v>84</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>82</v>
@@ -14489,10 +14438,10 @@
         <v>84</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>84</v>
@@ -14503,10 +14452,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14621,10 +14570,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14737,10 +14686,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>229</v>
@@ -14771,7 +14720,7 @@
         <v>231</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14831,7 +14780,7 @@
         <v>83</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>146</v>
@@ -14857,10 +14806,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14975,10 +14924,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15093,10 +15042,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15213,10 +15162,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15331,14 +15280,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15360,10 +15309,10 @@
         <v>140</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>170</v>
@@ -15418,7 +15367,7 @@
         <v>84</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>82</v>
@@ -15453,10 +15402,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15482,13 +15431,13 @@
         <v>284</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>314</v>
@@ -15516,13 +15465,13 @@
         <v>84</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>84</v>
@@ -15540,7 +15489,7 @@
         <v>84</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>95</v>
@@ -15558,7 +15507,7 @@
         <v>84</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>318</v>
@@ -15575,10 +15524,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15604,13 +15553,13 @@
         <v>425</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>429</v>
@@ -15660,7 +15609,7 @@
         <v>144</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>82</v>
@@ -15678,7 +15627,7 @@
         <v>84</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>433</v>
@@ -15695,10 +15644,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>437</v>
@@ -15726,13 +15675,13 @@
         <v>160</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>429</v>
@@ -15784,7 +15733,7 @@
         <v>84</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>82</v>
@@ -15802,7 +15751,7 @@
         <v>84</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>433</v>
@@ -15819,10 +15768,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>439</v>
@@ -15850,13 +15799,13 @@
         <v>440</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>429</v>
@@ -15908,7 +15857,7 @@
         <v>84</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>82</v>
@@ -15926,7 +15875,7 @@
         <v>84</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>433</v>
@@ -15943,10 +15892,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>442</v>
@@ -15968,19 +15917,19 @@
         <v>84</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>443</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>444</v>
+        <v>623</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>446</v>
+        <v>624</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>429</v>
@@ -16032,7 +15981,7 @@
         <v>84</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>82</v>
@@ -16041,39 +15990,39 @@
         <v>95</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>447</v>
+        <v>107</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>84</v>
+        <v>625</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>84</v>
@@ -16092,19 +16041,19 @@
         <v>84</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>453</v>
+        <v>623</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>455</v>
+        <v>624</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>429</v>
@@ -16156,7 +16105,7 @@
         <v>84</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>82</v>
@@ -16165,39 +16114,39 @@
         <v>95</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>456</v>
+        <v>107</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>84</v>
+        <v>625</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>84</v>
@@ -16219,16 +16168,16 @@
         <v>96</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>429</v>
@@ -16280,7 +16229,7 @@
         <v>84</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>82</v>
@@ -16298,7 +16247,7 @@
         <v>84</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>433</v>
@@ -16315,13 +16264,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>84</v>
@@ -16343,16 +16292,16 @@
         <v>96</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>429</v>
@@ -16404,7 +16353,7 @@
         <v>84</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>82</v>
@@ -16422,7 +16371,7 @@
         <v>84</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>433</v>
@@ -16439,13 +16388,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>84</v>
@@ -16467,16 +16416,16 @@
         <v>96</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>429</v>
@@ -16528,7 +16477,7 @@
         <v>84</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>82</v>
@@ -16546,7 +16495,7 @@
         <v>84</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>433</v>
@@ -16563,13 +16512,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>84</v>
@@ -16588,19 +16537,19 @@
         <v>84</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>470</v>
+        <v>623</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>472</v>
+        <v>624</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>429</v>
@@ -16652,7 +16601,7 @@
         <v>84</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>82</v>
@@ -16661,39 +16610,39 @@
         <v>95</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>473</v>
+        <v>107</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>84</v>
+        <v>625</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>84</v>
@@ -16715,16 +16664,16 @@
         <v>96</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>284</v>
+        <v>461</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>429</v>
@@ -16756,7 +16705,7 @@
       </c>
       <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>84</v>
@@ -16774,7 +16723,7 @@
         <v>84</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>82</v>
@@ -16792,7 +16741,7 @@
         <v>84</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>433</v>
@@ -16809,10 +16758,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16838,16 +16787,16 @@
         <v>284</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>84</v>
@@ -16875,10 +16824,10 @@
         <v>344</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>84</v>
@@ -16896,7 +16845,7 @@
         <v>84</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>82</v>
@@ -16905,7 +16854,7 @@
         <v>95</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>107</v>
@@ -16920,7 +16869,7 @@
         <v>138</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>84</v>
@@ -16931,14 +16880,14 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16960,16 +16909,16 @@
         <v>284</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>84</v>
@@ -16997,10 +16946,10 @@
         <v>344</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>84</v>
@@ -17018,7 +16967,7 @@
         <v>84</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>82</v>
@@ -17036,27 +16985,27 @@
         <v>84</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17079,19 +17028,19 @@
         <v>84</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>84</v>
@@ -17140,7 +17089,7 @@
         <v>84</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>82</v>
@@ -17161,10 +17110,10 @@
         <v>84</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>84</v>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-egfr.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-egfr.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -386,7 +386,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -812,7 +812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -841,7 +841,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -924,7 +924,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -1114,7 +1114,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1159,7 +1159,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1182,7 +1182,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1507,7 +1507,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1539,7 +1539,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1598,7 +1598,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1677,7 +1677,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1757,7 +1757,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1807,7 +1807,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1840,7 +1840,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1899,7 +1899,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1987,7 +1987,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR 